--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Mercos_RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projetos\Mercos_RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,9 +70,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,28 +372,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4637</v>
+        <v>6068</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4636</v>
-      </c>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6068</v>
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6071</v>
       </c>
     </row>
     <row r="20" spans="13:13" x14ac:dyDescent="0.25">
